--- a/similarities/split_global/harmonic_similarity_timestamps_269.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_269.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>jaah_10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'D:7', 'G:7', 'D']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb:7', 'F']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.230000', '0:00:08.780000')]</t>
+          <t>('0:00:37.850000', '0:00:45.930000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:02.610000', '0:00:07.980000')]</t>
+          <t>('0:00:31.660000', '0:00:38.640000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=0.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=37.85</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=2.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=31.66</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:06.220000', '0:00:14.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:00.220000', '0:00:06.800000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=6.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+          <t>('0:00:09.979342', '0:00:16.701519')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=9.979342</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:00.820000', '0:01:06.820000')]</t>
+          <t>('0:00:17.560000', '0:00:38.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=30.06']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F', 'C/3', 'D:min7'], ['C', 'F/5', 'C']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:03.837000', '0:01:05.890000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:17.980000', '0:00:26.320000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:09.060000', '0:01:12.500000'), ('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:51.641107', '0:00:57.139232')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=63.837', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=69.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:hdim7/D#', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
+          <t>('0:00:23.080000', '0:00:29.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:41.370000')]</t>
+          <t>('0:00:14.580000', '0:00:21.140000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=14.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+          <t>('0:01:48.540000', '0:02:00.720000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:06.820000')]</t>
+          <t>('0:01:24.160000', '0:01:32.420000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=108.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=84.16</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G:hdim7', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:05.820000', '0:01:24.640000')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:14.200000', '0:00:23.420000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=14.2']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_60</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'E:min7']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'F#:min7']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:16.520000', '0:00:19.630000')]</t>
+          <t>('0:00:08.980000', '0:00:24.840000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.490000', '0:00:19.810000')]</t>
+          <t>('0:00:24.640000', '0:00:36.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=16.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=16.49']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min', 'D:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb/3', 'C:min', 'F:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:09.619433', '0:00:18.826145')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:23.141000', '0:01:31.243000')]</t>
+          <t>('0:00:53.820000', '0:01:02.520000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=9.619433']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=83.141']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=53.82</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
+          <t>('0:00:11.260000', '0:00:13.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000')]</t>
+          <t>('0:00:56.454081', '0:01:01.864331')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=56.454081</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:04.193106', '0:01:09.789115')]</t>
+          <t>('0:00:23.080000', '0:00:30.920000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:03:28.740000', '0:03:31.740000')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=64.193106']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=23.08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=208.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
